--- a/03 - Studies/01 - Power/Power Consumption.xlsx
+++ b/03 - Studies/01 - Power/Power Consumption.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\Desktop\Hot-Plate\03 - Studies\01 - Power\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB8C9D6-41F9-4F3D-A859-87A9ADF0A415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1500E4C5-4E57-4C92-B20B-4DE42CF5153C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="829" activeTab="3" xr2:uid="{455135F4-0B59-4298-BD27-54FE4FF94239}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="829" activeTab="2" xr2:uid="{455135F4-0B59-4298-BD27-54FE4FF94239}"/>
   </bookViews>
   <sheets>
     <sheet name="OVERVIEW" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>Descripción</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>Ptot=</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>W Ploss</t>
   </si>
 </sst>
 </file>
@@ -388,7 +394,7 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -424,10 +430,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -843,19 +848,19 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E5" s="6" t="s">
         <v>6</v>
       </c>
@@ -869,7 +874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
         <v>8</v>
       </c>
@@ -891,7 +896,7 @@
       </c>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="31"/>
       <c r="C7" s="32" t="s">
         <v>9</v>
@@ -913,7 +918,7 @@
       </c>
       <c r="J7" s="24"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H8" s="14" t="s">
         <v>14</v>
       </c>
@@ -922,7 +927,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H9" s="14" t="s">
         <v>15</v>
       </c>
@@ -931,7 +936,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H10" s="10" t="s">
         <v>16</v>
       </c>
@@ -951,19 +956,19 @@
   <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -980,7 +985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
@@ -992,7 +997,7 @@
         <v>7.9749999999999988E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1010,7 +1015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1028,7 +1033,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1046,21 +1051,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B2EA83-EC7E-46D6-8790-2BAD618CC70D}">
   <dimension ref="B2:H23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="76.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="76.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1077,7 +1082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
         <v>14</v>
       </c>
@@ -1094,7 +1099,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1115,7 +1120,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
@@ -1133,7 +1138,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1141,8 +1146,15 @@
         <f>SUM(F3:F5)</f>
         <v>0.23200000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <f>F6*3.3</f>
+        <v>0.76559999999999995</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E7" s="29" t="s">
         <v>21</v>
       </c>
@@ -1150,8 +1162,24 @@
         <f>(3.3*F6)/(12*80%)</f>
         <v>7.9749999999999988E-2</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <f>F7*12</f>
+        <v>0.95699999999999985</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <f>G7-G6</f>
+        <v>0.1913999999999999</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
         <v>14</v>
       </c>
@@ -1160,7 +1188,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="17" t="s">
         <v>19</v>
       </c>
@@ -1176,7 +1204,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
         <v>20</v>
       </c>
@@ -1192,7 +1220,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E16" s="15" t="s">
         <v>10</v>
       </c>
@@ -1201,15 +1229,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1224,18 +1252,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64EFE1FB-0D15-4558-B5FA-6F5AD689C569}">
   <dimension ref="B2:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F2" s="36" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>23</v>
       </c>
@@ -1243,7 +1271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>24</v>
       </c>
@@ -1251,7 +1279,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>30</v>
       </c>
@@ -1260,7 +1288,7 @@
         <v>0.31500000000000006</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -1268,7 +1296,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>26</v>
       </c>
@@ -1276,23 +1304,23 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="37">
+      <c r="C12" s="36">
         <v>1.4E-8</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13" s="36">
         <v>1.0999999999999999E-8</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>29</v>
       </c>
@@ -1300,16 +1328,16 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16">
         <f>C10*C4*C11*(C12+C13)/C14</f>
         <v>0.22499999999999998</v>
       </c>
     </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>32</v>
       </c>
